--- a/theo/outputs/CVX/correlations.xlsx
+++ b/theo/outputs/CVX/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.4886022558889751</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.08841056290752372</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1059501872987421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.5883891397101694</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.5123406347882157</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.006464912190076466</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.006646830134789654</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.1935296460402912</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.1910740388169975</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.006464912190076466</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.006646830134789654</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.1935296460402912</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.1910740388169975</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.04941367770550029</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.05889365734692084</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.01864943813581231</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.4886022558889751</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.07468664203771194</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.1081970801531523</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.7806652630196266</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4772097341458626</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.08892522605053189</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.08879407475749977</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.4367557089026475</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.4372606862320117</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.09393572092310296</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.09405230442060966</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.401017469099911</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4014604871415041</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.09128044194028993</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.02854305587062089</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.06136634662906823</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.08841056290752372</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.07468664203771194</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.891709079322065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.05875353118356164</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.001900909426912133</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.1137610084038637</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.1147805484525912</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.05573165036412822</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.05632044698143489</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.004726294479473542</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.003584368244845488</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.0219753049886088</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.02304628142259528</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.3090775507251809</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1196211356098047</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9525083166283802</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1059501872987421</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.1081970801531523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.891709079322065</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1772047662172578</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1291638819287571</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1561513039066808</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1567510556914825</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.03210975037898696</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.03113647955480339</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.08083064987209243</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.08158822717442461</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.06822207875918192</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.06652282462005565</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.1548405856394096</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1487951249184441</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.7967026468701128</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.5883891397101694</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.7806652630196266</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.05875353118356164</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1772047662172578</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.7288962068345212</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.01052033151064361</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.01040963217850828</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.0238259127436398</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.02114644295986113</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.03918253755349007</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.03919858731492299</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.02872816639725845</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.02612747521381975</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2441032442166982</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.243097517610816</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.10581186473124</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.5123406347882157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4772097341458626</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.001900909426912133</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1291638819287571</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.7288962068345212</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.09700927539887295</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.09672184728053698</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5821174574729145</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5815534498976855</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1152767319261489</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1153296232326575</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5853676805091609</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.584897844873457</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.2672541270555222</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.3140809669478188</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1126723300065065</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.006464912190076466</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.08892522605053189</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.1137610084038637</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1561513039066808</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.01052033151064361</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.09700927539887295</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999206474642686</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1736340324009782</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1739396918259216</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.1278054842715176</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.1281745474360793</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1522758714183807</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.152379716158783</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.0609930189431048</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.1272222016085313</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.1164255043955217</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.006646830134789654</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.08879407475749977</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.1147805484525912</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1567510556914825</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.01040963217850828</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.09672184728053698</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999206474642686</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1735110566874521</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1738288712640186</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.1290714959893617</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.1294744645173623</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1518701605706147</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1519848618096542</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.06034135671984021</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.1273311467386972</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.1176330980526867</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.1935296460402912</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.4367557089026475</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.05573165036412822</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.03210975037898696</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.0238259127436398</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5821174574729145</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1736340324009782</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1735110566874521</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998898819524121</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.01697012102247879</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.01706594026878474</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9726235190331554</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9725629737642935</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.1891191960659825</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.3479212258885409</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.05855842647480018</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.1910740388169975</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.4372606862320117</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.05632044698143489</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.03113647955480339</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.02114644295986113</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5815534498976855</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1739396918259216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1738288712640186</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998898819524121</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.01736370640165514</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.01745830195295407</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9726394190858341</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9727927950579663</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.1883593327378079</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.3450828880272558</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.0584926602382251</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.006464912190076466</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.09393572092310296</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.004726294479473542</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.08083064987209243</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.03918253755349007</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1152767319261489</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.1278054842715176</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.1290714959893617</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.01697012102247879</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.01736370640165514</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999206474642686</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1736340324009782</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1739396918259216</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.1436663557597969</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.05002923943127693</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.0178002416017416</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.006646830134789654</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.09405230442060966</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.003584368244845488</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.08158822717442461</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.03919858731492299</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1153296232326575</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.1281745474360793</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.1294744645173623</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.01706594026878474</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.01745830195295407</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999206474642686</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1735110566874521</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1738288712640186</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.1432536381672485</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.04978919841953995</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.0163852246971765</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.1935296460402912</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.401017469099911</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.0219753049886088</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.06822207875918192</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.02872816639725845</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5853676805091609</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1522758714183807</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1518701605706147</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9726235190331554</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9726394190858341</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1736340324009782</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1735110566874521</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998898819524121</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.1878254219109781</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.356905066979846</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.02968229192551066</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.1910740388169975</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4014604871415041</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.02304628142259528</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.06652282462005565</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.02612747521381975</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.584897844873457</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.152379716158783</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1519848618096542</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9725629737642935</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9727927950579663</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1739396918259216</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1738288712640186</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998898819524121</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.1866811664311041</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.3538635646784878</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.03016727012986069</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.04941367770550029</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.09128044194028993</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.3090775507251809</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.1548405856394096</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2441032442166982</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.2672541270555222</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.0609930189431048</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.06034135671984021</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.1891191960659825</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.1883593327378079</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.1436663557597969</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.1432536381672485</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.1878254219109781</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.1866811664311041</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5737580987145787</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.4050449476316455</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.05889365734692084</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.02854305587062089</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1196211356098047</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1487951249184441</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.243097517610816</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.3140809669478188</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.1272222016085313</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.1273311467386972</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.3479212258885409</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.3450828880272558</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.05002923943127693</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.04978919841953995</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.356905066979846</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.3538635646784878</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5737580987145787</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.1657412128555788</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.01864943813581231</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.06136634662906823</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9525083166283802</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.7967026468701128</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.10581186473124</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1126723300065065</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.1164255043955217</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.1176330980526867</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.05855842647480018</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.0584926602382251</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.0178002416017416</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.0163852246971765</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.02968229192551066</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.03016727012986069</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.4050449476316455</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.1657412128555788</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.1795625845192188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.02714064748777437</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.02519018212191841</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.14459549549407</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.1544152329204687</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01369173434985038</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01365367432298595</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.05569426034810416</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.05518569647920636</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01369173434985038</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01365367432298595</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.05569426034810416</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.05518569647920636</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.003800598857976793</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.0398949179673448</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.006670503342645847</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.1795625845192188</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.07891422498820445</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.06308122409682852</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.4107863603052909</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8074242278446588</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.05086280238039232</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05067852972778943</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2768061414890598</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2770214731858726</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05938567334027553</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05954513640737994</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2569343028757113</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2571568520219429</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.01388386490787831</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.01818883989219275</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.02855779413106787</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.02714064748777437</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.07891422498820445</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.3131665629170629</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.01493474261269988</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.0527579343795782</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.1185433922030812</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.1233130498303749</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.04038082387226193</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.04159292017750168</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.123130429541891</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1265499320694621</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.01411808589794881</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.01522213843832864</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5860807104478105</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.4357599896263978</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9823214254315478</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.02519018212191841</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.06308122409682852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.3131665629170629</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1718699506761693</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.07934316861861956</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1399477478814691</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1414607531962919</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.02881177329120357</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.02884819139779044</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.08335854278258109</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.08392305858659198</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.04292246493304117</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.04234268561004837</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5859546413454049</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.07756809882466698</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.2452592827636908</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.14459549549407</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.4107863603052909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.01493474261269988</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1718699506761693</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.4616465432524305</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.01415651795288976</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.01445809562590982</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.09797889182078008</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.09931095981324752</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.01778975339555567</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.01792239266954174</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.09862242522989728</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.09992675233710688</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1338907544432611</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1130635349697797</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.06089662473521969</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.1544152329204687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8074242278446588</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.0527579343795782</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.07934316861861956</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.4616465432524305</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05731663228863213</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05739140068554435</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3434186331287309</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3430849716847215</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.0700704530061757</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.0701148495940724</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3456726823514663</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.345338616177187</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.02267662151342166</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.09440991950845862</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.00321355569079489</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01369173434985038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.05086280238039232</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.1185433922030812</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1399477478814691</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.01415651795288976</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05731663228863213</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997757053699988</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.177820062004877</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1777546541392389</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.06446052876871877</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.06411174885529757</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1667879590854078</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1666578869588572</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2225435401793251</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1669061844349396</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.1278261015310229</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01365367432298595</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05067852972778943</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.1233130498303749</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1414607531962919</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.01445809562590982</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05739140068554435</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997757053699988</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1775749456413366</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1775653938698445</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.06407573370958623</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.06377696428085662</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1665510764343872</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1664705294808027</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2278634935023121</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1693346993915186</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.1328999769597704</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.05569426034810416</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2768061414890598</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.04038082387226193</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.02881177329120357</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.09797889182078008</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3434186331287309</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.177820062004877</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1775749456413366</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997993323734353</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01399479852206862</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01393976736448162</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9712657412955925</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9710974564415227</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.05903682641774549</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.1827267997277961</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.05069563195128484</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.05518569647920636</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2770214731858726</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.04159292017750168</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.02884819139779044</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.09931095981324752</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3430849716847215</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1777546541392389</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1775653938698445</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997993323734353</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01443176119763349</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01436747891407706</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9712306823963757</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9714497780531116</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.06010213604854368</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.1808050571818445</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.05196224994485449</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01369173434985038</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05938567334027553</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.123130429541891</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.08335854278258109</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.01778975339555567</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.0700704530061757</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.06446052876871877</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.06407573370958623</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01399479852206862</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01443176119763349</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997757053699988</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.177820062004877</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1777546541392389</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.03303926565350829</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.01977563069095235</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.09700065859057443</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01365367432298595</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05954513640737994</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1265499320694621</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.08392305858659198</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.01792239266954174</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.0701148495940724</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.06411174885529757</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.06377696428085662</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01393976736448162</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01436747891407706</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997757053699988</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1775749456413366</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1775653938698445</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.03549738409949904</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.01837001108687329</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1000152817655229</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.05569426034810416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2569343028757113</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.01411808589794881</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.04292246493304117</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.09862242522989728</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3456726823514663</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1667879590854078</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1665510764343872</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9712657412955925</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9712306823963757</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.177820062004877</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1775749456413366</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997993323734353</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.04962110037434816</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.1871665120496841</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.02789287171773147</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.05518569647920636</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2571568520219429</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.01522213843832864</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.04234268561004837</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.09992675233710688</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.345338616177187</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1666578869588572</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1664705294808027</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9710974564415227</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9714497780531116</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1777546541392389</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1775653938698445</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997993323734353</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.05004148703925237</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1849108755045049</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.02907084963120958</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.003800598857976793</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.01388386490787831</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5860807104478105</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5859546413454049</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1338907544432611</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.02267662151342166</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2225435401793251</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2278634935023121</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.05903682641774549</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.06010213604854368</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.03303926565350829</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.03549738409949904</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.04962110037434816</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.05004148703925237</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4379972297142959</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.6289325665337051</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.0398949179673448</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.01818883989219275</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.4357599896263978</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.07756809882466698</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1130635349697797</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.09440991950845862</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1669061844349396</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1693346993915186</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.1827267997277961</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.1808050571818445</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.01977563069095235</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.01837001108687329</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.1871665120496841</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1849108755045049</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4379972297142959</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.4575053508057375</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.006670503342645847</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.02855779413106787</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9823214254315478</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.2452592827636908</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.06089662473521969</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.00321355569079489</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.1278261015310229</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.1328999769597704</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.05069563195128484</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.05196224994485449</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.09700065859057443</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1000152817655229</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.02789287171773147</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.02907084963120958</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.6289325665337051</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.4575053508057375</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.6819371735032284</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1094570162226132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.108447246092551</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.5154494400017742</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.6851781235126934</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.008737311015439793</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.008884599839126176</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06344674277386433</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06409176005550611</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.008737311015439793</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.008884599839126176</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06344674277386433</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06409176005550611</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.0008201051419405162</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.01008486599805211</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.002913777775337772</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.6819371735032284</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1022675186825463</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.1006871661947532</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.4766236774193692</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9715172111434744</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.01735374918468054</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.01664256774494477</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.08593549777981437</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.0783532579145972</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02581834180097969</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02639866283782424</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.07830615633974226</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.07078976865771283</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.0002397608150523311</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.01493797738003963</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.006332670355790906</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1094570162226132</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1022675186825463</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.4161126154258312</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.06027663615279629</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.09299383513632864</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.04891219796858776</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.05179973874687657</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02857252008067892</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02995005790063362</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.04275859857402061</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.0434051030668133</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.0213329586846582</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.02307423119916358</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5392054726479053</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.344436875344502</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.937265212819875</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.108447246092551</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.1006871661947532</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.4161126154258312</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2094524101386802</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.101123552151605</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.02471961374342592</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.02067611167920926</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.005239569180533697</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.004245122678729675</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.03606897488616476</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.03475913665215472</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.003766632439892136</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.001548253653416414</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.5414298631797368</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1007894417806859</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.3269924157436435</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.5154494400017742</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.4766236774193692</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.06027663615279629</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2094524101386802</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.4853152910717669</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01162193078407744</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01163335080713914</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.0526601541933998</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.05028308531850655</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.003690017704447757</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.003265437370341921</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.05121822801059088</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.04877829971855559</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.138256108968682</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.15736191195467</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.07067224739804388</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.6851781235126934</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9715172111434744</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.09299383513632864</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.101123552151605</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.4853152910717669</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02437231487651021</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02518105004482158</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1526045692136612</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1593546944415759</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02626790324746382</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02689856429242017</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1529361058794296</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.159649152161793</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.007675534086020648</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.03961147375414201</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.00475463061520823</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.008737311015439793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.01735374918468054</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.04891219796858776</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.02471961374342592</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01162193078407744</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02437231487651021</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9969716543717813</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1757292505185773</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1742405122473022</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.000384141320179037</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.003011583644577614</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1736912791955357</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.172471156973563</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.06941968698542701</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.06131210980524909</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.06544345302196536</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.008884599839126176</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.01664256774494477</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.05179973874687657</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.02067611167920926</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01163335080713914</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02518105004482158</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9969716543717813</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.176206260453802</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1758061200434703</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.002156342203257953</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.004780386887562311</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.174238421065834</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1741008573741024</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.06847659106046326</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.06201239764796387</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.0669869918436011</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06344674277386433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.08593549777981437</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02857252008067892</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.005239569180533697</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.0526601541933998</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1526045692136612</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1757292505185773</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.176206260453802</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9967579005307832</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.008728709380774285</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.009410561639276687</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.970602758345868</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9675292951323209</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.03127070346585606</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.1042411667227881</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.04640075094627619</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06409176005550611</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.0783532579145972</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02995005790063362</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.004245122678729675</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.05028308531850655</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1593546944415759</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1742405122473022</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1758061200434703</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9967579005307832</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.009876790643506777</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01062163313379979</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9676138255914969</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9708278223819855</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.03162334555990062</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1043994775211923</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.04695548443648553</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.008737311015439793</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02581834180097969</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.04275859857402061</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.03606897488616476</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.003690017704447757</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02626790324746382</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.000384141320179037</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.002156342203257953</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.008728709380774285</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.009876790643506777</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9969716543717813</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1757292505185773</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1742405122473022</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.002046306053647916</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.05833619172426261</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.04403744216109004</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.008884599839126176</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02639866283782424</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.0434051030668133</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.03475913665215472</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.003265437370341921</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02689856429242017</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.003011583644577614</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.004780386887562311</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.009410561639276687</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01062163313379979</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9969716543717813</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.176206260453802</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1758061200434703</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.00356481273926705</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.05295483157182682</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.04511632219594287</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06344674277386433</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.07830615633974226</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.0213329586846582</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.003766632439892136</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.05121822801059088</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1529361058794296</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1736912791955357</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.174238421065834</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.970602758345868</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9676138255914969</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1757292505185773</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.176206260453802</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9967579005307832</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.02386863992955179</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1115542376579901</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.03587469621829203</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06409176005550611</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.07078976865771283</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.02307423119916358</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.001548253653416414</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.04877829971855559</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.159649152161793</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.172471156973563</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1741008573741024</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9675292951323209</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9708278223819855</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1742405122473022</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1758061200434703</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9967579005307832</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02346543678005912</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1105707929391994</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.03687745738418556</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.0008201051419405162</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.0002397608150523311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5392054726479053</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.5414298631797368</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.138256108968682</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.007675534086020648</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.06941968698542701</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.06847659106046326</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.03127070346585606</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.03162334555990062</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.002046306053647916</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.00356481273926705</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.02386863992955179</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02346543678005912</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4118121414974861</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5637412686672445</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.01008486599805211</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.01493797738003963</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.344436875344502</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1007894417806859</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.15736191195467</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.03961147375414201</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.06131210980524909</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.06201239764796387</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.1042411667227881</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1043994775211923</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.05833619172426261</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.05295483157182682</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1115542376579901</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1105707929391994</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4118121414974861</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3711589658119669</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.002913777775337772</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.006332670355790906</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.937265212819875</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.3269924157436435</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.07067224739804388</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.00475463061520823</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.06544345302196536</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.0669869918436011</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.04640075094627619</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.04695548443648553</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.04403744216109004</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.04511632219594287</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.03587469621829203</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.03687745738418556</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5637412686672445</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3711589658119669</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
